--- a/simulation_data/iterative_algorithm/i_error_level_14_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_14_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.31196313333874</v>
+        <v>89.39887787123584</v>
       </c>
       <c r="D2" t="n">
-        <v>20.60744980954497</v>
+        <v>17.58464846538132</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.45685191248367</v>
+        <v>90.67780252268879</v>
       </c>
       <c r="D3" t="n">
-        <v>18.96749992778961</v>
+        <v>16.79604259562392</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.48555884825488</v>
+        <v>88.61614765133247</v>
       </c>
       <c r="D4" t="n">
-        <v>19.3894805726332</v>
+        <v>17.24673477178532</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.01694041491049</v>
+        <v>86.64044554282295</v>
       </c>
       <c r="D5" t="n">
-        <v>17.13271969198608</v>
+        <v>15.96656175457661</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.28684289720788</v>
+        <v>88.31102417413976</v>
       </c>
       <c r="D6" t="n">
-        <v>16.82514109169355</v>
+        <v>16.4655327324574</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.41275203131539</v>
+        <v>83.82142996315855</v>
       </c>
       <c r="D7" t="n">
-        <v>16.86608724741795</v>
+        <v>19.24048683658133</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.53239758637049</v>
+        <v>83.98400383977729</v>
       </c>
       <c r="D8" t="n">
-        <v>18.02432240208967</v>
+        <v>16.51979967855592</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.7811904476446</v>
+        <v>82.46407902223183</v>
       </c>
       <c r="D9" t="n">
-        <v>18.67420485741012</v>
+        <v>18.09936317386908</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.7792880679291</v>
+        <v>81.15595961863136</v>
       </c>
       <c r="D10" t="n">
-        <v>17.30020917918703</v>
+        <v>16.35605238824545</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.48610726439615</v>
+        <v>78.84741989361716</v>
       </c>
       <c r="D11" t="n">
-        <v>18.55701503438892</v>
+        <v>17.10889131030507</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.93518848529637</v>
+        <v>77.1488896358439</v>
       </c>
       <c r="D12" t="n">
-        <v>19.76384081142447</v>
+        <v>15.28823999763839</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>77.80071060176654</v>
+        <v>76.55172522391655</v>
       </c>
       <c r="D13" t="n">
-        <v>16.50468481710539</v>
+        <v>15.4066571552689</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.17069733911205</v>
+        <v>74.28334860827384</v>
       </c>
       <c r="D14" t="n">
-        <v>19.03582650922536</v>
+        <v>17.35697687878758</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>75.72438635765894</v>
+        <v>76.99367331528006</v>
       </c>
       <c r="D15" t="n">
-        <v>18.18590059273689</v>
+        <v>16.98680017507747</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.10778542709204</v>
+        <v>79.08911070765915</v>
       </c>
       <c r="D16" t="n">
-        <v>16.74641064162261</v>
+        <v>15.7612660577116</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.97798576139458</v>
+        <v>71.70270139657094</v>
       </c>
       <c r="D17" t="n">
-        <v>18.31750097925002</v>
+        <v>17.36207765370898</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.19418311991107</v>
+        <v>74.24691664332485</v>
       </c>
       <c r="D18" t="n">
-        <v>19.74048939273677</v>
+        <v>18.5618478455847</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.26532617741715</v>
+        <v>73.06914097215399</v>
       </c>
       <c r="D19" t="n">
-        <v>16.16050169774011</v>
+        <v>16.65707160562935</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.77048949628858</v>
+        <v>73.45089468872132</v>
       </c>
       <c r="D20" t="n">
-        <v>15.70886400103343</v>
+        <v>18.63323726947726</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.50805388188955</v>
+        <v>70.8111177949494</v>
       </c>
       <c r="D21" t="n">
-        <v>20.77520220090102</v>
+        <v>17.71143460364194</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>68.90756776610067</v>
+        <v>70.98733906469762</v>
       </c>
       <c r="D22" t="n">
-        <v>18.70108639871129</v>
+        <v>16.62684509728128</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.92439411403571</v>
+        <v>67.56489906753487</v>
       </c>
       <c r="D23" t="n">
-        <v>19.07417850003661</v>
+        <v>18.46282328047662</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.00887700185095</v>
+        <v>63.89822604960123</v>
       </c>
       <c r="D24" t="n">
-        <v>16.35356300868823</v>
+        <v>18.39086114592922</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.67403017290268</v>
+        <v>64.35406347253044</v>
       </c>
       <c r="D25" t="n">
-        <v>18.72116207639812</v>
+        <v>18.31931610128365</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.64095598116778</v>
+        <v>67.33529956542579</v>
       </c>
       <c r="D26" t="n">
-        <v>18.84675656841162</v>
+        <v>18.60687419392957</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>68.15056086912303</v>
+        <v>63.71143793170297</v>
       </c>
       <c r="D27" t="n">
-        <v>19.20338013259223</v>
+        <v>17.11287816695939</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.25105572624912</v>
+        <v>62.83976155682869</v>
       </c>
       <c r="D28" t="n">
-        <v>20.25036778527127</v>
+        <v>17.03279385219138</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.38399986887092</v>
+        <v>62.76305313179428</v>
       </c>
       <c r="D29" t="n">
-        <v>20.99693012996509</v>
+        <v>18.72818319462576</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.26669485025657</v>
+        <v>62.37258224921042</v>
       </c>
       <c r="D30" t="n">
-        <v>19.52702100907672</v>
+        <v>16.8784400282703</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.94695210095578</v>
+        <v>60.17466200358803</v>
       </c>
       <c r="D31" t="n">
-        <v>19.19579792893039</v>
+        <v>18.263171531426</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.11396084178446</v>
+        <v>59.89699756770142</v>
       </c>
       <c r="D32" t="n">
-        <v>18.65167947039584</v>
+        <v>17.21401598294907</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.67626318782154</v>
+        <v>58.33480759302909</v>
       </c>
       <c r="D33" t="n">
-        <v>16.87774934991735</v>
+        <v>18.43863667372792</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.02648931918779</v>
+        <v>60.30931553134432</v>
       </c>
       <c r="D34" t="n">
-        <v>18.83979102643602</v>
+        <v>16.65991477225253</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>55.14798890680768</v>
+        <v>55.84533660169469</v>
       </c>
       <c r="D35" t="n">
-        <v>19.48125934520984</v>
+        <v>19.21999544173774</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.45165710036994</v>
+        <v>55.38827088043298</v>
       </c>
       <c r="D36" t="n">
-        <v>20.20096820628535</v>
+        <v>17.78805771646486</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>51.92533061836325</v>
+        <v>56.44840449460828</v>
       </c>
       <c r="D37" t="n">
-        <v>16.19531453813225</v>
+        <v>17.73966664455622</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.0548890524083</v>
+        <v>51.14733070662783</v>
       </c>
       <c r="D38" t="n">
-        <v>20.86482365599675</v>
+        <v>18.75909425541039</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.86660053468191</v>
+        <v>53.82603207032075</v>
       </c>
       <c r="D39" t="n">
-        <v>18.6402823171281</v>
+        <v>16.98637907523401</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>54.22647604412073</v>
+        <v>53.2949853688821</v>
       </c>
       <c r="D40" t="n">
-        <v>16.27177608645255</v>
+        <v>18.78603037673496</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.05279537823445</v>
+        <v>51.47660780450924</v>
       </c>
       <c r="D41" t="n">
-        <v>18.06604917320204</v>
+        <v>18.01256645313622</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.96117008224709</v>
+        <v>51.6099904956525</v>
       </c>
       <c r="D42" t="n">
-        <v>17.13899059100169</v>
+        <v>16.74177424588042</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>46.10683058354014</v>
+        <v>48.67175363876605</v>
       </c>
       <c r="D43" t="n">
-        <v>20.61256498682201</v>
+        <v>17.6785700425689</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>44.19255955690885</v>
+        <v>49.20304516404621</v>
       </c>
       <c r="D44" t="n">
-        <v>19.35101983417336</v>
+        <v>18.11341217676273</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>49.78610817756215</v>
+        <v>48.66451423627134</v>
       </c>
       <c r="D45" t="n">
-        <v>17.54862936437518</v>
+        <v>17.38781369047144</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.45579878963031</v>
+        <v>51.0182002909165</v>
       </c>
       <c r="D46" t="n">
-        <v>17.43287845802301</v>
+        <v>17.019721919044</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.3350800014599</v>
+        <v>42.28547011403664</v>
       </c>
       <c r="D47" t="n">
-        <v>19.92369831662035</v>
+        <v>20.00040747175156</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>46.7848289292962</v>
+        <v>37.90855000202381</v>
       </c>
       <c r="D48" t="n">
-        <v>18.97746990790183</v>
+        <v>18.12706064835419</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.21483628878582</v>
+        <v>42.94836322264209</v>
       </c>
       <c r="D49" t="n">
-        <v>19.78797887745567</v>
+        <v>17.00792020467927</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.17438166702053</v>
+        <v>39.93354440361603</v>
       </c>
       <c r="D50" t="n">
-        <v>20.0408312413701</v>
+        <v>19.21149301415699</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.41870425042632</v>
+        <v>36.37278831692994</v>
       </c>
       <c r="D51" t="n">
-        <v>17.23306557046045</v>
+        <v>22.0213847580849</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.7206539912518</v>
+        <v>38.33936339974647</v>
       </c>
       <c r="D52" t="n">
-        <v>17.64426415031167</v>
+        <v>17.21127079158335</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.112911456563</v>
+        <v>40.1650419213068</v>
       </c>
       <c r="D53" t="n">
-        <v>17.85797949753077</v>
+        <v>18.64905273646617</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.88702163758479</v>
+        <v>40.09322841576299</v>
       </c>
       <c r="D54" t="n">
-        <v>17.05835884253545</v>
+        <v>20.41512354123907</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>34.56975421826478</v>
+        <v>34.92238469236234</v>
       </c>
       <c r="D55" t="n">
-        <v>19.91624590429528</v>
+        <v>17.52342066500515</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.49879232975263</v>
+        <v>32.83007227009243</v>
       </c>
       <c r="D56" t="n">
-        <v>18.23439890652656</v>
+        <v>19.17324649353167</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.37154078099188</v>
+        <v>33.00333792276978</v>
       </c>
       <c r="D57" t="n">
-        <v>19.68261095481108</v>
+        <v>21.61760923068575</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.54954076065484</v>
+        <v>34.66745221556944</v>
       </c>
       <c r="D58" t="n">
-        <v>16.60645056088727</v>
+        <v>18.75149831742712</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.2359093600674</v>
+        <v>33.48320412476652</v>
       </c>
       <c r="D59" t="n">
-        <v>16.9083144385318</v>
+        <v>18.03928425104201</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.23623196313545</v>
+        <v>29.95904157616608</v>
       </c>
       <c r="D60" t="n">
-        <v>19.63624948463392</v>
+        <v>18.37061620887831</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>32.47526640312217</v>
+        <v>30.83143498889669</v>
       </c>
       <c r="D61" t="n">
-        <v>19.45524693764854</v>
+        <v>19.62386798031208</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>32.71197405375496</v>
+        <v>34.45716985961882</v>
       </c>
       <c r="D62" t="n">
-        <v>16.30574188996698</v>
+        <v>18.18277975540965</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>26.9618326595119</v>
+        <v>28.9678553241734</v>
       </c>
       <c r="D63" t="n">
-        <v>19.1802558596504</v>
+        <v>18.34935166884887</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.38274039924466</v>
+        <v>27.85918046967215</v>
       </c>
       <c r="D64" t="n">
-        <v>19.47871209668337</v>
+        <v>21.85042961886904</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.55103495535523</v>
+        <v>25.21268087030387</v>
       </c>
       <c r="D65" t="n">
-        <v>16.68788929191703</v>
+        <v>17.09606679475065</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.99208304508134</v>
+        <v>27.58250443763815</v>
       </c>
       <c r="D66" t="n">
-        <v>16.43548921433344</v>
+        <v>17.78830283655451</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.5154692546855</v>
+        <v>23.15778032676539</v>
       </c>
       <c r="D67" t="n">
-        <v>16.50012751476336</v>
+        <v>20.09654815425194</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.20911742075295</v>
+        <v>20.30254066780416</v>
       </c>
       <c r="D68" t="n">
-        <v>19.54271858773615</v>
+        <v>20.02496540217845</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>19.80036319798113</v>
+        <v>22.10549929553142</v>
       </c>
       <c r="D69" t="n">
-        <v>16.44515254956308</v>
+        <v>18.14872537409723</v>
       </c>
     </row>
   </sheetData>
